--- a/ParserCodes/shift_reduce_analysis.xlsx
+++ b/ParserCodes/shift_reduce_analysis.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Shift-Reduce Conflicts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Reduce-Reduce Conflicts" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="States" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Conflict States Detail" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Transitions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shift-Reduce Conflicts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reduce-Reduce Conflicts" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="States" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Conflict States Detail" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transitions" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,7 +700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>arg → NUMBER | STRING</t>
+          <t>arg → NUMBER</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>args</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>args → arg ("," arg)*</t>
+          <t>arg → STRING</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>args</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>call_stmt → ID "(" args? ")" ";"</t>
+          <t>args → arg ("," arg)*</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
+          <t>call_stmt → ID "(" args? ")" ";"</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>program → stmt_list</t>
+          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>program</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>stmt → for_stmt</t>
+          <t>program → stmt_list</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>stmt → call_stmt</t>
+          <t>stmt → for_stmt</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>stmt_list → stmt</t>
+          <t>stmt → call_stmt</t>
         </is>
       </c>
     </row>
@@ -875,6 +875,21 @@
         </is>
       </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>stmt_list → stmt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>stmt_list</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>stmt_list → stmt stmt_list</t>
         </is>
@@ -935,16 +950,16 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>"for"</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>[for_stmt → · "for" ID "=" NUMBER "to" NUMBER ";"]</t>
+          <t>[call_stmt → · ID "(" args? ")" ";"]</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr">
@@ -953,21 +968,21 @@
         </is>
       </c>
       <c r="E2" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>"for"</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>[call_stmt → · ID "(" args? ")" ";"]</t>
+          <t>[for_stmt → · "for" ID "=" NUMBER "to" NUMBER ";"]</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr">
@@ -976,7 +991,7 @@
         </is>
       </c>
       <c r="E3" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +1147,7 @@
       </c>
       <c r="B4" s="17" t="inlineStr">
         <is>
-          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
+          <t>[programBar → program ·]</t>
         </is>
       </c>
       <c r="C4" s="18" t="inlineStr">
@@ -1149,7 +1164,7 @@
       </c>
       <c r="B5" s="17" t="inlineStr">
         <is>
-          <t>[stmt → call_stmt ·]</t>
+          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
         </is>
       </c>
       <c r="C5" s="18" t="inlineStr">
@@ -1192,30 +1207,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="8" ht="120" customHeight="1">
+      <c r="A8" s="19" t="inlineStr">
         <is>
           <t>State 6</t>
         </is>
       </c>
-      <c r="B8" s="17" t="inlineStr">
-        <is>
-          <t>[programBar → program ·]</t>
-        </is>
-      </c>
-      <c r="C8" s="18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="120" customHeight="1">
-      <c r="A9" s="19" t="inlineStr">
-        <is>
-          <t>State 7</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="inlineStr">
+      <c r="B8" s="20" t="inlineStr">
         <is>
           <t>[call_stmt → · ID "(" args? ")" ";"]
 [for_stmt → · "for" ID "=" NUMBER "to" NUMBER ";"]
@@ -1227,9 +1225,26 @@
 [stmt_list → · stmt]</t>
         </is>
       </c>
-      <c r="C9" s="21" t="inlineStr">
+      <c r="C8" s="21" t="inlineStr">
         <is>
           <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>State 7</t>
+        </is>
+      </c>
+      <c r="B9" s="17" t="inlineStr">
+        <is>
+          <t>[stmt → call_stmt ·]</t>
+        </is>
+      </c>
+      <c r="C9" s="18" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1484,7 @@
     </row>
     <row r="2" ht="120" customHeight="1">
       <c r="A2" s="23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="24" t="inlineStr">
         <is>
@@ -1558,7 +1573,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1586,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1612,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1610,7 +1625,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1641,7 +1656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1654,7 +1669,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1667,7 +1682,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1675,25 +1690,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>call_stmt</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>7</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>call_stmt</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1706,7 +1721,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1714,12 +1729,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>

--- a/ParserCodes/shift_reduce_analysis.xlsx
+++ b/ParserCodes/shift_reduce_analysis.xlsx
@@ -950,16 +950,16 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>"for"</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>[call_stmt → · ID "(" args? ")" ";"]</t>
+          <t>[for_stmt → · "for" ID "=" NUMBER "to" NUMBER ";"]</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr">
@@ -973,16 +973,16 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>"for"</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>[for_stmt → · "for" ID "=" NUMBER "to" NUMBER ";"]</t>
+          <t>[call_stmt → · ID "(" args? ")" ";"]</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B4" s="17" t="inlineStr">
         <is>
-          <t>[programBar → program ·]</t>
+          <t>[stmt → call_stmt ·]</t>
         </is>
       </c>
       <c r="C4" s="18" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B5" s="17" t="inlineStr">
         <is>
-          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
+          <t>[stmt → for_stmt ·]</t>
         </is>
       </c>
       <c r="C5" s="18" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B6" s="17" t="inlineStr">
         <is>
-          <t>[program → stmt_list ·]</t>
+          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
         </is>
       </c>
       <c r="C6" s="18" t="inlineStr">
@@ -1190,30 +1190,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="7" ht="120" customHeight="1">
+      <c r="A7" s="19" t="inlineStr">
         <is>
           <t>State 5</t>
         </is>
       </c>
-      <c r="B7" s="17" t="inlineStr">
-        <is>
-          <t>[stmt → for_stmt ·]</t>
-        </is>
-      </c>
-      <c r="C7" s="18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="120" customHeight="1">
-      <c r="A8" s="19" t="inlineStr">
-        <is>
-          <t>State 6</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="inlineStr">
+      <c r="B7" s="20" t="inlineStr">
         <is>
           <t>[call_stmt → · ID "(" args? ")" ";"]
 [for_stmt → · "for" ID "=" NUMBER "to" NUMBER ";"]
@@ -1225,9 +1208,26 @@
 [stmt_list → · stmt]</t>
         </is>
       </c>
-      <c r="C8" s="21" t="inlineStr">
+      <c r="C7" s="21" t="inlineStr">
         <is>
           <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>State 6</t>
+        </is>
+      </c>
+      <c r="B8" s="17" t="inlineStr">
+        <is>
+          <t>[program → stmt_list ·]</t>
+        </is>
+      </c>
+      <c r="C8" s="18" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B9" s="17" t="inlineStr">
         <is>
-          <t>[stmt → call_stmt ·]</t>
+          <t>[programBar → program ·]</t>
         </is>
       </c>
       <c r="C9" s="18" t="inlineStr">
@@ -1484,7 +1484,7 @@
     </row>
     <row r="2" ht="120" customHeight="1">
       <c r="A2" s="23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="24" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1656,7 +1656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1690,12 +1690,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1703,12 +1703,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1716,12 +1716,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1729,12 +1729,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
